--- a/06-junio/DETALLE.xlsx
+++ b/06-junio/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\06-junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E1209E-B3DA-4239-BBBF-4C6F1EFD3A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0B2ED7-5AC9-44E6-AF50-5BEE72C1FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +682,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,17 +697,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="2" builtinId="10"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1026,48 +1026,48 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-    </row>
-    <row r="3" spans="1:11" ht="24" thickBot="1">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" thickBot="1">
+    <row r="4" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="24" thickBot="1">
+    <row r="8" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
@@ -1236,13 +1236,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="1:11" ht="24" thickBot="1">
+    <row r="10" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
@@ -1259,13 +1259,13 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="50"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1278,35 +1278,35 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:11" ht="24" thickBot="1">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+    </row>
+    <row r="14" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24" thickBot="1">
+    <row r="15" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="30" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="38"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35" t="s">
         <v>26</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36" t="s">
         <v>16</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="24" thickBot="1">
+    <row r="19" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="26" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="23" t="s">
         <v>18</v>
       </c>
@@ -1475,13 +1475,13 @@
         <v>14</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="49"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
       <c r="J20" s="34"/>
       <c r="K20" s="38"/>
     </row>
-    <row r="21" spans="1:11" ht="24" thickBot="1">
+    <row r="21" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="26" t="s">
         <v>25</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="50"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="44"/>
       <c r="I21" s="44"/>
       <c r="J21" s="29"/>
@@ -1524,42 +1524,42 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1569,33 +1569,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1605,53 +1605,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1661,17 +1661,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>

--- a/06-junio/DETALLE.xlsx
+++ b/06-junio/DETALLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\06-junio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0B2ED7-5AC9-44E6-AF50-5BEE72C1FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED189C3-B06C-4053-95FA-D6DB4B3142B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25545" yWindow="765" windowWidth="16665" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -561,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,11 +703,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Accent4" xfId="1" builtinId="44"/>
+    <cellStyle name="60% - Énfasis4" xfId="1" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Notas" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,7 +736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1023,23 +1035,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>29</v>
       </c>
@@ -1054,7 +1066,7 @@
       <c r="J1" s="48"/>
       <c r="K1" s="48"/>
     </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -1067,7 +1079,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
@@ -1119,13 +1131,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="33"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
@@ -1142,13 +1154,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="38"/>
     </row>
-    <row r="6" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="35" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1183,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1208,7 @@
       </c>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
@@ -1219,7 +1231,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
@@ -1242,7 +1254,7 @@
       <c r="J9" s="34"/>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +1277,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1278,7 +1290,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1305,7 @@
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -1306,7 +1318,7 @@
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="30" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1376,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A16" s="23" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1399,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="38"/>
     </row>
-    <row r="17" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A17" s="35" t="s">
         <v>26</v>
       </c>
@@ -1410,7 +1422,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A18" s="36" t="s">
         <v>16</v>
       </c>
@@ -1435,7 +1447,7 @@
       </c>
       <c r="K18" s="40"/>
     </row>
-    <row r="19" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26" t="s">
         <v>17</v>
       </c>
@@ -1458,7 +1470,7 @@
       <c r="J19" s="29"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" ht="25.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A20" s="23" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +1493,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="38"/>
     </row>
-    <row r="21" spans="1:11" ht="26.4" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26" t="s">
         <v>25</v>
       </c>
@@ -1524,42 +1536,42 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1569,33 +1581,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
@@ -1605,53 +1617,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="50"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1661,17 +1673,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="14" t="s">
         <v>24</v>
@@ -1681,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>

--- a/06-junio/DETALLE.xlsx
+++ b/06-junio/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED189C3-B06C-4053-95FA-D6DB4B3142B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB71299A-D98C-43ED-9A53-B2EC361BB1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25545" yWindow="765" windowWidth="16665" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27525" yWindow="780" windowWidth="16665" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,6 +694,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,10 +709,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +1038,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1052,32 +1055,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1131,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="51"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42"/>
       <c r="J4" s="33"/>
@@ -1154,7 +1157,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="52"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -1177,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
       <c r="J6" s="22"/>
@@ -1291,32 +1294,32 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1551,10 +1554,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1587,10 +1590,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1623,8 +1626,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1643,10 +1646,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/06-junio/DETALLE.xlsx
+++ b/06-junio/DETALLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB71299A-D98C-43ED-9A53-B2EC361BB1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACFE334-CC25-4B7D-928A-7446CA92BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27525" yWindow="780" windowWidth="16665" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,6 +700,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,7 +712,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1047,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1055,32 +1064,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1180,7 +1189,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
       <c r="J6" s="22"/>
@@ -1203,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
       <c r="J7" s="15" t="s">
@@ -1228,7 +1237,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="44"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
       <c r="J8" s="29"/>
@@ -1251,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="34"/>
@@ -1274,7 +1283,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="47"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
       <c r="J10" s="29"/>
@@ -1294,32 +1303,32 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1554,10 +1563,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1590,10 +1599,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1626,8 +1635,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1646,10 +1655,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/06-junio/DETALLE.xlsx
+++ b/06-junio/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACFE334-CC25-4B7D-928A-7446CA92BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8AB36-DFE1-439D-9920-B17FAD787417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27525" yWindow="780" windowWidth="16665" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,21 +661,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,12 +673,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,6 +680,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -712,13 +700,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1046,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1064,32 +1061,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1143,11 +1140,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="37"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
@@ -1166,11 +1163,11 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="49"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="34"/>
-      <c r="K5" s="38"/>
+      <c r="K5" s="52"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="35" t="s">
@@ -1189,11 +1186,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="43"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
@@ -1212,13 +1209,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="43"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="40"/>
+      <c r="K7" s="54"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
@@ -1237,11 +1234,11 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="44"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
@@ -1260,11 +1257,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="38"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
@@ -1283,11 +1280,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="44"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="44"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="41"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
@@ -1303,32 +1300,32 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1382,11 +1379,11 @@
         <v>12</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="33"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A16" s="23" t="s">
@@ -1405,11 +1402,11 @@
         <v>14</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="34"/>
-      <c r="K16" s="38"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A17" s="35" t="s">
@@ -1429,10 +1426,10 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="43"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="39"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A18" s="36" t="s">
@@ -1452,12 +1449,12 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="43"/>
       <c r="J18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="40"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26" t="s">
@@ -1477,10 +1474,10 @@
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
+      <c r="H19" s="39"/>
       <c r="I19" s="44"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="55"/>
     </row>
     <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A20" s="23" t="s">
@@ -1499,11 +1496,11 @@
         <v>14</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="50"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="38"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26" t="s">
@@ -1522,11 +1519,11 @@
         <v>12</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="44"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1563,10 +1560,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1599,10 +1596,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1635,8 +1632,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1655,10 +1652,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/06-junio/DETALLE.xlsx
+++ b/06-junio/DETALLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8AB36-DFE1-439D-9920-B17FAD787417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72207583-CDD8-4E5D-8FB4-49D2CBFE8F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16380" yWindow="0" windowWidth="13035" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,9 +661,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,6 +686,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -698,24 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1041,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1061,32 +1058,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1140,11 +1137,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="41"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="51"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
@@ -1163,11 +1160,11 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="42"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="34"/>
-      <c r="I5" s="42"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="34"/>
-      <c r="K5" s="52"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="35" t="s">
@@ -1186,11 +1183,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="53"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
@@ -1209,13 +1206,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="43"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="54"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
@@ -1234,11 +1231,11 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="44"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="55"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
@@ -1257,11 +1254,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="50"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="52"/>
+      <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
@@ -1280,11 +1277,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="55"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
@@ -1300,32 +1297,32 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1379,11 +1376,11 @@
         <v>12</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="41"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="33"/>
-      <c r="K15" s="51"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A16" s="23" t="s">
@@ -1402,11 +1399,11 @@
         <v>14</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="42"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="34"/>
-      <c r="I16" s="42"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="34"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="48"/>
     </row>
     <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A17" s="35" t="s">
@@ -1425,11 +1422,11 @@
         <v>27</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="43"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="53"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A18" s="36" t="s">
@@ -1448,13 +1445,13 @@
         <v>14</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="43"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="54"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26" t="s">
@@ -1473,11 +1470,11 @@
         <v>14</v>
       </c>
       <c r="F19" s="28"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="44"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="51"/>
     </row>
     <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A20" s="23" t="s">
@@ -1496,11 +1493,11 @@
         <v>14</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="50"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="52"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26" t="s">
@@ -1519,11 +1516,11 @@
         <v>12</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="55"/>
+      <c r="K21" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1560,10 +1557,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1596,10 +1593,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1632,8 +1629,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1652,10 +1649,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/06-junio/DETALLE.xlsx
+++ b/06-junio/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72207583-CDD8-4E5D-8FB4-49D2CBFE8F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A867C8B-4933-4C4D-9A1A-569AF61449CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16380" yWindow="0" windowWidth="13035" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12855" yWindow="405" windowWidth="13035" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,15 +659,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,7 +1032,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1058,32 +1049,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1137,11 +1128,11 @@
         <v>12</v>
       </c>
       <c r="F4" s="32"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="33"/>
-      <c r="K4" s="47"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A5" s="23" t="s">
@@ -1160,11 +1151,11 @@
         <v>14</v>
       </c>
       <c r="F5" s="25"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="41"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="34"/>
-      <c r="K5" s="48"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A6" s="35" t="s">
@@ -1183,11 +1174,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="42"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="49"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A7" s="36" t="s">
@@ -1206,13 +1197,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="42"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="50"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
@@ -1231,11 +1222,11 @@
         <v>14</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="43"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
       <c r="J8" s="29"/>
-      <c r="K8" s="51"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A9" s="23" t="s">
@@ -1254,11 +1245,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="46"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="48"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
@@ -1277,11 +1268,11 @@
         <v>12</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="43"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="29"/>
-      <c r="K10" s="51"/>
+      <c r="K10" s="48"/>
     </row>
     <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A11" s="18"/>
@@ -1297,32 +1288,32 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1376,11 +1367,11 @@
         <v>12</v>
       </c>
       <c r="F15" s="32"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="33"/>
-      <c r="K15" s="47"/>
+      <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A16" s="23" t="s">
@@ -1399,11 +1390,11 @@
         <v>14</v>
       </c>
       <c r="F16" s="25"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="41"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="34"/>
-      <c r="K16" s="48"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A17" s="35" t="s">
@@ -1422,11 +1413,11 @@
         <v>27</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="42"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="49"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A18" s="36" t="s">
@@ -1445,13 +1436,13 @@
         <v>14</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="50"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26" t="s">
@@ -1470,11 +1461,11 @@
         <v>14</v>
       </c>
       <c r="F19" s="28"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="43"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="51"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:11" ht="27" x14ac:dyDescent="0.5">
       <c r="A20" s="23" t="s">
@@ -1493,11 +1484,11 @@
         <v>14</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="46"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="48"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26" t="s">
@@ -1516,11 +1507,11 @@
         <v>12</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="29"/>
-      <c r="K21" s="51"/>
+      <c r="K21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1557,10 +1548,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1593,10 +1584,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1629,8 +1620,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1649,10 +1640,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
